--- a/Excel2Unity/Excel/InnstoryData/MissionCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/MissionCards.xlsx
@@ -16,47 +16,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>卡牌ID</t>
   </si>
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>称号</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>洞察</t>
-  </si>
-  <si>
-    <t>体质</t>
-  </si>
-  <si>
-    <t>意志</t>
-  </si>
-  <si>
-    <t>生命</t>
-  </si>
-  <si>
-    <t>理性</t>
-  </si>
-  <si>
-    <t>幸运</t>
+    <t>卡牌名字</t>
+  </si>
+  <si>
+    <t>装备卡数目</t>
+  </si>
+  <si>
+    <t>诡计卡数目</t>
+  </si>
+  <si>
+    <t>技能卡数目</t>
+  </si>
+  <si>
+    <t>达成条件</t>
+  </si>
+  <si>
+    <t>达成效果</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -69,43 +54,288 @@
     <t>name</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>insight</t>
-  </si>
-  <si>
-    <t>physique</t>
-  </si>
-  <si>
-    <t>determination</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>lucky</t>
+    <t>itemCardNum</t>
+  </si>
+  <si>
+    <t>counterCardNum</t>
+  </si>
+  <si>
+    <t>skillCardNum</t>
+  </si>
+  <si>
+    <t>cardConditon</t>
+  </si>
+  <si>
+    <t>cardEffect</t>
   </si>
   <si>
     <t>KEY</t>
   </si>
   <si>
-    <t>达伦·琼斯</t>
-  </si>
-  <si>
-    <t>罪犯，佣兵</t>
-  </si>
-  <si>
-    <t>布伦达·威尔逊</t>
-  </si>
-  <si>
-    <t>深潜者，祭祀</t>
+    <t>黑道规矩</t>
+  </si>
+  <si>
+    <t>剑2，日1，月1</t>
+  </si>
+  <si>
+    <t>获得佣兵：黑帮打手。</t>
+  </si>
+  <si>
+    <t>走私行动</t>
+  </si>
+  <si>
+    <t>盾2，月1，旧印1</t>
+  </si>
+  <si>
+    <t>结算阶段结束后，获得2张装备卡。</t>
+  </si>
+  <si>
+    <t>清算时刻</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剑3，日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，旧印1</t>
+    </r>
+  </si>
+  <si>
+    <t>双方各受到3点伤害。</t>
+  </si>
+  <si>
+    <t>预先警告</t>
+  </si>
+  <si>
+    <t>3剑，3盾，1日</t>
+  </si>
+  <si>
+    <t>将一个已经完成的任务返回任务卡组。</t>
+  </si>
+  <si>
+    <t>海潮预言</t>
+  </si>
+  <si>
+    <t>1剑，1盾，2月</t>
+  </si>
+  <si>
+    <t>结算阶段结束后，获得2张技能卡。</t>
+  </si>
+  <si>
+    <t>达贡的意志</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1剑，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1盾，1日，1月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：当对手任务完成进行结算时，取消达成效果，对手任务无法完成。</t>
+    </r>
+  </si>
+  <si>
+    <t>伊哈斯里的支援</t>
+  </si>
+  <si>
+    <t>2剑，3盾，1月，1触手</t>
+  </si>
+  <si>
+    <t>获得佣兵：深海持盾者。</t>
+  </si>
+  <si>
+    <t>邪恶祭典</t>
+  </si>
+  <si>
+    <t>2剑，2月，1触手</t>
+  </si>
+  <si>
+    <t>获得第二个佣兵卡位。</t>
+  </si>
+  <si>
+    <t>遣散</t>
+  </si>
+  <si>
+    <t>1盾，1日，1月</t>
+  </si>
+  <si>
+    <t>弃除对手佣兵卡。</t>
+  </si>
+  <si>
+    <t>渴望死亡</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>将“渴望死亡”移出游戏。</t>
+  </si>
+  <si>
+    <t>正面对决</t>
+  </si>
+  <si>
+    <t>2剑，2盾，1日，1月</t>
+  </si>
+  <si>
+    <t>弃除对手2张手牌。</t>
+  </si>
+  <si>
+    <t>禁忌研究</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剑，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1盾，2月,2触手</t>
+    </r>
+  </si>
+  <si>
+    <t>投掷旧印后自动失败。获得佣兵：神秘学者</t>
+  </si>
+  <si>
+    <t>整备</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剑，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2盾</t>
+    </r>
+  </si>
+  <si>
+    <t>结算阶段结束后，获得1张诡计卡，1张技能卡。</t>
+  </si>
+  <si>
+    <t>背水一战</t>
+  </si>
+  <si>
+    <t>3剑，2日，2月。</t>
+  </si>
+  <si>
+    <t>如果失败，受到X点伤害/恐惧。X等同于你在战斗结算中造成的伤害/恐惧。</t>
+  </si>
+  <si>
+    <t>越过思维边界</t>
+  </si>
+  <si>
+    <t>3剑，1盾，1触手，1旧印</t>
+  </si>
+  <si>
+    <t>恢复X点伤害/恐惧，X等同于你在战斗结算中造成的伤害/恐惧。</t>
+  </si>
+  <si>
+    <t>克敌之道</t>
+  </si>
+  <si>
+    <t>如果对方没有完成任务，下回合无法展示新的任务卡。</t>
   </si>
 </sst>
 </file>
@@ -113,15 +343,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -134,68 +370,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,8 +409,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,23 +456,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,22 +493,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,181 +535,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,17 +849,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,15 +899,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,31 +924,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,152 +949,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,15 +1108,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,16 +1127,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1272,12 +1550,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1309,58 +1587,46 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -1368,36 +1634,30 @@
       <c r="O2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -1406,166 +1666,478 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" spans="1:15">
       <c r="A4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:15">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="27" spans="1:15">
+      <c r="A7" s="17">
+        <v>2</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
+        <v>3</v>
+      </c>
+      <c r="E7" s="19">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="13" t="s">
+    </row>
+    <row r="9" ht="27" spans="1:12">
+      <c r="A9" s="17">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="13">
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" ht="27" spans="1:7">
+      <c r="A10" s="12">
+        <v>5</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:7">
+      <c r="A11" s="17">
         <v>6</v>
       </c>
-      <c r="E6" s="13">
+      <c r="B11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="14">
         <v>2</v>
       </c>
-      <c r="F6" s="13">
-        <v>6</v>
-      </c>
-      <c r="G6" s="13">
-        <v>4</v>
-      </c>
-      <c r="H6" s="13">
-        <v>24</v>
-      </c>
-      <c r="I6" s="13">
-        <v>18</v>
-      </c>
-      <c r="J6" s="13">
-        <v>4</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:15">
-      <c r="A7" s="14">
+    <row r="12" spans="1:7">
+      <c r="A12" s="12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="14">
-        <v>3</v>
-      </c>
-      <c r="E7" s="14">
-        <v>6</v>
-      </c>
-      <c r="F7" s="14">
-        <v>4</v>
-      </c>
-      <c r="G7" s="13">
-        <v>6</v>
-      </c>
-      <c r="H7" s="13">
-        <v>20</v>
-      </c>
-      <c r="I7" s="13">
-        <v>22</v>
-      </c>
-      <c r="J7" s="13">
-        <v>3</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="12:12">
-      <c r="L9" s="15"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="17">
+        <v>8</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="12">
+        <v>9</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17">
+        <v>10</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="12">
+        <v>11</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>2</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:7">
+      <c r="A17" s="17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="1:7">
+      <c r="A18" s="12">
+        <v>13</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" spans="1:7">
+      <c r="A19" s="17">
+        <v>14</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>2</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" ht="40.5" spans="1:7">
+      <c r="A20" s="12">
+        <v>15</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14">
+        <v>2</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:7">
+      <c r="A21" s="12">
+        <v>16</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19">
+        <v>1</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="$A4:$XFD4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
+  <conditionalFormatting sqref="F1">
     <cfRule type="cellIs" priority="2" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" priority="1" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="$A4:$XFD4">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="cellIs" priority="4" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P2:XFD3 A2:N3">
-    <cfRule type="cellIs" priority="6" operator="equal">
+    <cfRule type="cellIs" priority="8" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:XFD4 A4:N4">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
+      <formula1>"KEY"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3 I3 J3 K3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
-      <formula1>"KEY"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel2Unity/Excel/InnstoryData/MissionCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/MissionCards.xlsx
@@ -344,9 +344,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -485,9 +485,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,8 +499,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,6 +553,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -571,55 +589,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,13 +655,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,85 +727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,10 +952,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,133 +964,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1555,7 +1555,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1653,7 +1653,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -2130,11 +2130,11 @@
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
+      <formula1>"C,S,CS"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
       <formula1>"KEY"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
-      <formula1>"C,S,CS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3 I3 J3 K3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>

--- a/Excel2Unity/Excel/InnstoryData/MissionCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/MissionCards.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>卡牌ID</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>cardEffect</t>
-  </si>
-  <si>
-    <t>KEY</t>
   </si>
   <si>
     <t>黑道规矩</t>
@@ -485,8 +482,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,9 +497,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,6 +556,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -571,24 +586,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -601,48 +598,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -661,6 +658,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -673,7 +706,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,48 +725,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,10 +949,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,115 +961,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,10 +1078,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1552,10 +1549,10 @@
   <sheetPr/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1696,9 +1693,7 @@
       <c r="O4" s="11"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1719,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
@@ -1731,10 +1726,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -1750,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="14">
         <v>0</v>
@@ -1762,10 +1757,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1781,22 +1776,22 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1</v>
-      </c>
-      <c r="E8" s="19">
-        <v>1</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="G8" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:12">
@@ -1804,7 +1799,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -1816,10 +1811,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>29</v>
       </c>
       <c r="L9" s="23"/>
     </row>
@@ -1828,22 +1823,22 @@
         <v>5</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="19">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:7">
@@ -1851,7 +1846,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
@@ -1863,10 +1858,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1874,7 +1869,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="14">
         <v>2</v>
@@ -1886,10 +1881,10 @@
         <v>2</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1897,7 +1892,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="14">
         <v>0</v>
@@ -1909,10 +1904,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1920,22 +1915,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="20" t="s">
+      <c r="G14" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1943,7 +1938,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="14">
         <v>1</v>
@@ -1955,10 +1950,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1966,7 +1961,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="14">
         <v>2</v>
@@ -1978,10 +1973,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:7">
@@ -1989,22 +1984,22 @@
         <v>12</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="14">
-        <v>1</v>
-      </c>
-      <c r="D17" s="18">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="20" t="s">
+      <c r="G17" s="20" t="s">
         <v>52</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:7">
@@ -2012,7 +2007,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="14">
         <v>0</v>
@@ -2024,10 +2019,10 @@
         <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:7">
@@ -2035,7 +2030,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="14">
         <v>1</v>
@@ -2047,10 +2042,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" ht="40.5" spans="1:7">
@@ -2058,7 +2053,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="14">
         <v>0</v>
@@ -2070,10 +2065,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:7">
@@ -2081,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="14">
         <v>0</v>
@@ -2093,10 +2088,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2133,11 +2128,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3 I3 J3 K3:XFD3">
+      <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
       <formula1>"KEY"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3 I3 J3 K3:XFD3">
-      <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel2Unity/Excel/InnstoryData/MissionCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/MissionCards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="12165"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>卡牌ID</t>
   </si>
@@ -39,6 +39,9 @@
     <t>达成效果</t>
   </si>
   <si>
+    <t>预制体</t>
+  </si>
+  <si>
     <t>CS</t>
   </si>
   <si>
@@ -66,9 +69,15 @@
     <t>cardConditon</t>
   </si>
   <si>
+    <t>cardConditonDesc</t>
+  </si>
+  <si>
     <t>cardEffect</t>
   </si>
   <si>
+    <t>prefabPath</t>
+  </si>
+  <si>
     <t>黑道规矩</t>
   </si>
   <si>
@@ -76,6 +85,9 @@
   </si>
   <si>
     <t>获得佣兵：黑帮打手。</t>
+  </si>
+  <si>
+    <t>prefab/Mission</t>
   </si>
   <si>
     <t>走私行动</t>
@@ -360,13 +372,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -390,44 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -446,9 +413,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -469,14 +436,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,6 +489,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,49 +562,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,126 +737,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,17 +763,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -807,17 +808,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -841,6 +831,28 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -902,17 +914,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -937,6 +938,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -949,10 +961,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,133 +973,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,44 +1132,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1547,28 +1559,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="3" width="27" customWidth="1"/>
-    <col min="4" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="9" width="38.5" customWidth="1"/>
-    <col min="10" max="11" width="41.375" customWidth="1"/>
-    <col min="12" max="12" width="50.125" customWidth="1"/>
-    <col min="13" max="13" width="42.125" customWidth="1"/>
-    <col min="14" max="15" width="52.25" customWidth="1"/>
+    <col min="4" max="7" width="25.625" customWidth="1"/>
+    <col min="8" max="9" width="24.375" customWidth="1"/>
+    <col min="10" max="10" width="38.5" customWidth="1"/>
+    <col min="11" max="12" width="41.375" customWidth="1"/>
+    <col min="13" max="13" width="50.125" customWidth="1"/>
+    <col min="14" max="14" width="42.125" customWidth="1"/>
+    <col min="15" max="16" width="52.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1588,111 +1600,131 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="I1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
+    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
+    <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:15">
-      <c r="A4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:16">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+    <row r="5" s="1" customFormat="1" spans="1:16">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1708,430 +1740,553 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:15">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="15">
+    <row r="6" s="2" customFormat="1" spans="1:16">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
         <v>2</v>
       </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="27" spans="1:15">
-      <c r="A7" s="17">
+    <row r="7" s="2" customFormat="1" ht="27" spans="1:16">
+      <c r="A7" s="15">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12">
         <v>0</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>3</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>2</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="F7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="12">
+    <row r="8" spans="1:9">
+      <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1</v>
-      </c>
-      <c r="E8" s="19">
-        <v>1</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="9" ht="27" spans="1:12">
-      <c r="A9" s="17">
+    <row r="9" ht="27" spans="1:13">
+      <c r="A9" s="15">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="23"/>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="23"/>
     </row>
-    <row r="10" ht="27" spans="1:7">
-      <c r="A10" s="12">
+    <row r="10" ht="27" spans="1:9">
+      <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="19">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>31</v>
+      <c r="B10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="11" ht="40.5" spans="1:7">
-      <c r="A11" s="17">
+    <row r="11" ht="40.5" spans="1:9">
+      <c r="A11" s="15">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="12">
         <v>2</v>
       </c>
-      <c r="D11" s="18">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>34</v>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="12">
+    <row r="12" spans="1:9">
+      <c r="A12" s="10">
         <v>7</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="12">
         <v>2</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>0</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>2</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>37</v>
+      <c r="F12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="17">
+    <row r="13" spans="1:9">
+      <c r="A13" s="15">
         <v>8</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="12">
         <v>0</v>
       </c>
-      <c r="D13" s="18">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>40</v>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="12">
+    <row r="14" spans="1:9">
+      <c r="A14" s="10">
         <v>9</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>43</v>
+      <c r="B14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="17">
+    <row r="15" spans="1:9">
+      <c r="A15" s="15">
         <v>10</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="14">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="B15" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
         <v>2</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>0</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>46</v>
+      <c r="F15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="12">
+    <row r="16" spans="1:9">
+      <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="B16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12">
         <v>2</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <v>0</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>2</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>49</v>
+      <c r="F16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:7">
-      <c r="A17" s="17">
+    <row r="17" ht="27" spans="1:9">
+      <c r="A17" s="15">
         <v>12</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="14">
-        <v>1</v>
-      </c>
-      <c r="D17" s="18">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="B17" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="1:9">
+      <c r="A18" s="10">
+        <v>13</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>2</v>
+      </c>
+      <c r="E18" s="17">
+        <v>2</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" spans="1:9">
+      <c r="A19" s="15">
+        <v>14</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" ht="40.5" spans="1:9">
+      <c r="A20" s="10">
+        <v>15</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:9">
+      <c r="A21" s="10">
+        <v>16</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" ht="27" spans="1:7">
-      <c r="A18" s="12">
-        <v>13</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="14">
-        <v>0</v>
-      </c>
-      <c r="D18" s="18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="19">
-        <v>2</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" ht="40.5" spans="1:7">
-      <c r="A19" s="17">
-        <v>14</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
-        <v>2</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" ht="40.5" spans="1:7">
-      <c r="A20" s="12">
-        <v>15</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0</v>
-      </c>
-      <c r="D20" s="15">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14">
-        <v>2</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" ht="27" spans="1:7">
-      <c r="A21" s="12">
-        <v>16</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="14">
-        <v>0</v>
-      </c>
-      <c r="D21" s="18">
-        <v>1</v>
-      </c>
-      <c r="E21" s="19">
-        <v>1</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>63</v>
+      <c r="G21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" priority="2" operator="equal">
+    <cfRule type="cellIs" priority="5" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" priority="10" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" priority="9" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" priority="1" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A4:$XFD4">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
-    <cfRule type="cellIs" priority="4" operator="equal">
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" priority="3" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:XFD3 A2:N3">
-    <cfRule type="cellIs" priority="8" operator="equal">
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="cellIs" priority="7" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:XFD4 A4:N4">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  <conditionalFormatting sqref="P2:P3">
+    <cfRule type="cellIs" priority="12" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:E3 G2:H3 J2:O3 Q2:XFD3">
+    <cfRule type="cellIs" priority="16" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:E4 G4:H4 J4:XFD4">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:E4 G4:H4 J4:O4 Q4:XFD4">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:E2 F2 G2:H2 I2 J2:XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3 I3 J3 K3:XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:E3 F3 G3:H3 I3 J3 K3 L3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:E5 F5 G5:H5 I5 J5:XFD5">
       <formula1>"KEY"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel2Unity/Excel/InnstoryData/MissionCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/MissionCards.xlsx
@@ -353,9 +353,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -443,13 +443,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -458,6 +451,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,6 +494,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,13 +517,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -586,145 +586,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +961,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -973,16 +973,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,109 +997,109 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1564,7 +1564,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Excel2Unity/Excel/InnstoryData/MissionCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/MissionCards.xlsx
@@ -352,10 +352,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -372,22 +372,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -395,41 +379,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,13 +388,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,9 +407,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,16 +432,56 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,8 +493,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,25 +562,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,13 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,133 +724,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,41 +858,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,26 +888,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,8 +935,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,10 +961,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,133 +973,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1564,7 +1564,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
